--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Lrp5</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Lrp5</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H2">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I2">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J2">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.779843</v>
+        <v>10.250695</v>
       </c>
       <c r="N2">
-        <v>50.33952900000001</v>
+        <v>30.752085</v>
       </c>
       <c r="O2">
-        <v>0.3792236656946227</v>
+        <v>0.2501330709220828</v>
       </c>
       <c r="P2">
-        <v>0.3968949233565789</v>
+        <v>0.259830908271274</v>
       </c>
       <c r="Q2">
-        <v>1.088799266022</v>
+        <v>0.7034436936799999</v>
       </c>
       <c r="R2">
-        <v>9.799193394198001</v>
+        <v>6.330993243119999</v>
       </c>
       <c r="S2">
-        <v>0.004242071509940472</v>
+        <v>0.002996881950113983</v>
       </c>
       <c r="T2">
-        <v>0.004459409094129938</v>
+        <v>0.003113073198235611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H3">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I3">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J3">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>30.253893</v>
       </c>
       <c r="O3">
-        <v>0.2279121881532281</v>
+        <v>0.2460808482884365</v>
       </c>
       <c r="P3">
-        <v>0.2385325564622017</v>
+        <v>0.2556215780794031</v>
       </c>
       <c r="Q3">
-        <v>0.6543648132406668</v>
+        <v>0.6920477177440001</v>
       </c>
       <c r="R3">
-        <v>5.889283319166</v>
+        <v>6.228429459696001</v>
       </c>
       <c r="S3">
-        <v>0.002549471163309602</v>
+        <v>0.002948331661166382</v>
       </c>
       <c r="T3">
-        <v>0.002680090343654866</v>
+        <v>0.003062640579999307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H4">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I4">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J4">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.926370333333334</v>
+        <v>7.311799000000001</v>
       </c>
       <c r="N4">
-        <v>17.779111</v>
+        <v>21.935397</v>
       </c>
       <c r="O4">
-        <v>0.1339356918935731</v>
+        <v>0.1784193889131434</v>
       </c>
       <c r="P4">
-        <v>0.1401768955306099</v>
+        <v>0.1853368357235283</v>
       </c>
       <c r="Q4">
-        <v>0.3845463672757778</v>
+        <v>0.501764894576</v>
       </c>
       <c r="R4">
-        <v>3.460917305482</v>
+        <v>4.515884051184</v>
       </c>
       <c r="S4">
-        <v>0.001498231345096003</v>
+        <v>0.002137669538110487</v>
       </c>
       <c r="T4">
-        <v>0.001574991479935095</v>
+        <v>0.002220548508933877</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H5">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I5">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J5">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.910247</v>
+        <v>4.588677499999999</v>
       </c>
       <c r="N5">
-        <v>11.820494</v>
+        <v>9.177354999999999</v>
       </c>
       <c r="O5">
-        <v>0.1335713053155888</v>
+        <v>0.1119709438770801</v>
       </c>
       <c r="P5">
-        <v>0.09319701938742614</v>
+        <v>0.07754142475796089</v>
       </c>
       <c r="Q5">
-        <v>0.3835001671713333</v>
+        <v>0.31489340476</v>
       </c>
       <c r="R5">
-        <v>2.301001003028</v>
+        <v>1.88936042856</v>
       </c>
       <c r="S5">
-        <v>0.001494155244206465</v>
+        <v>0.001341540722326062</v>
       </c>
       <c r="T5">
-        <v>0.001047137696514967</v>
+        <v>0.0009290354745440374</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H6">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I6">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J6">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.546787999999999</v>
+        <v>8.745164000000001</v>
       </c>
       <c r="N6">
-        <v>16.640364</v>
+        <v>26.235492</v>
       </c>
       <c r="O6">
-        <v>0.1253571489429874</v>
+        <v>0.2133957479992572</v>
       </c>
       <c r="P6">
-        <v>0.1311986052631834</v>
+        <v>0.2216692531678338</v>
       </c>
       <c r="Q6">
-        <v>0.3599162818853333</v>
+        <v>0.6001281343360001</v>
       </c>
       <c r="R6">
-        <v>3.239246536967999</v>
+        <v>5.401153209024</v>
       </c>
       <c r="S6">
-        <v>0.001402270053806802</v>
+        <v>0.002556726557797945</v>
       </c>
       <c r="T6">
-        <v>0.001474113723853722</v>
+        <v>0.00265585266780203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>16.977119</v>
       </c>
       <c r="I7">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J7">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.779843</v>
+        <v>10.250695</v>
       </c>
       <c r="N7">
-        <v>50.33952900000001</v>
+        <v>30.752085</v>
       </c>
       <c r="O7">
-        <v>0.3792236656946227</v>
+        <v>0.2501330709220828</v>
       </c>
       <c r="P7">
-        <v>0.3968949233565789</v>
+        <v>0.259830908271274</v>
       </c>
       <c r="Q7">
-        <v>94.95779713743903</v>
+        <v>58.00908961590167</v>
       </c>
       <c r="R7">
-        <v>854.6201742369512</v>
+        <v>522.081806543115</v>
       </c>
       <c r="S7">
-        <v>0.3699651335687966</v>
+        <v>0.2471361889719688</v>
       </c>
       <c r="T7">
-        <v>0.388919865514205</v>
+        <v>0.2567178350730384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>16.977119</v>
       </c>
       <c r="I8">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J8">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>30.253893</v>
       </c>
       <c r="O8">
-        <v>0.2279121881532281</v>
+        <v>0.2460808482884365</v>
       </c>
       <c r="P8">
-        <v>0.2385325564622017</v>
+        <v>0.2556215780794031</v>
       </c>
       <c r="Q8">
         <v>57.06932685269634</v>
@@ -948,10 +948,10 @@
         <v>513.623941674267</v>
       </c>
       <c r="S8">
-        <v>0.2223478404957082</v>
+        <v>0.2431325166272701</v>
       </c>
       <c r="T8">
-        <v>0.2337395726694453</v>
+        <v>0.2525589374994037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>16.977119</v>
       </c>
       <c r="I9">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J9">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.926370333333334</v>
+        <v>7.311799000000001</v>
       </c>
       <c r="N9">
-        <v>17.779111</v>
+        <v>21.935397</v>
       </c>
       <c r="O9">
-        <v>0.1339356918935731</v>
+        <v>0.1784193889131434</v>
       </c>
       <c r="P9">
-        <v>0.1401768955306099</v>
+        <v>0.1853368357235283</v>
       </c>
       <c r="Q9">
-        <v>33.5375647956899</v>
+        <v>41.37776057569368</v>
       </c>
       <c r="R9">
-        <v>301.8380831612091</v>
+        <v>372.3998451812431</v>
       </c>
       <c r="S9">
-        <v>0.1306657274415392</v>
+        <v>0.1762817193750329</v>
       </c>
       <c r="T9">
-        <v>0.1373602335270583</v>
+        <v>0.1831162872145944</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>16.977119</v>
       </c>
       <c r="I10">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J10">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.910247</v>
+        <v>4.588677499999999</v>
       </c>
       <c r="N10">
-        <v>11.820494</v>
+        <v>9.177354999999999</v>
       </c>
       <c r="O10">
-        <v>0.1335713053155888</v>
+        <v>0.1119709438770801</v>
       </c>
       <c r="P10">
-        <v>0.09319701938742614</v>
+        <v>0.07754142475796089</v>
       </c>
       <c r="Q10">
-        <v>33.44632221279767</v>
+        <v>25.96750799004083</v>
       </c>
       <c r="R10">
-        <v>200.677933276786</v>
+        <v>155.805047940245</v>
       </c>
       <c r="S10">
-        <v>0.1303102371565442</v>
+        <v>0.110629403154754</v>
       </c>
       <c r="T10">
-        <v>0.09132435340806361</v>
+        <v>0.07661238928341685</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>16.977119</v>
       </c>
       <c r="I11">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J11">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.546787999999999</v>
+        <v>8.745164000000001</v>
       </c>
       <c r="N11">
-        <v>16.640364</v>
+        <v>26.235492</v>
       </c>
       <c r="O11">
-        <v>0.1253571489429874</v>
+        <v>0.2133957479992572</v>
       </c>
       <c r="P11">
-        <v>0.1311986052631834</v>
+        <v>0.2216692531678338</v>
       </c>
       <c r="Q11">
-        <v>31.38949331459067</v>
+        <v>49.48922996750535</v>
       </c>
       <c r="R11">
-        <v>282.505439831316</v>
+        <v>445.4030697075481</v>
       </c>
       <c r="S11">
-        <v>0.1222966247835452</v>
+        <v>0.2108390214414592</v>
       </c>
       <c r="T11">
-        <v>0.1285623496593982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.153465</v>
-      </c>
-      <c r="I12">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J12">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>16.779843</v>
-      </c>
-      <c r="N12">
-        <v>50.33952900000001</v>
-      </c>
-      <c r="O12">
-        <v>0.3792236656946227</v>
-      </c>
-      <c r="P12">
-        <v>0.3968949233565789</v>
-      </c>
-      <c r="Q12">
-        <v>1.2875593029975</v>
-      </c>
-      <c r="R12">
-        <v>7.725355817985002</v>
-      </c>
-      <c r="S12">
-        <v>0.005016460615885596</v>
-      </c>
-      <c r="T12">
-        <v>0.003515648748243885</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.153465</v>
-      </c>
-      <c r="I13">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J13">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>10.084631</v>
-      </c>
-      <c r="N13">
-        <v>30.253893</v>
-      </c>
-      <c r="O13">
-        <v>0.2279121881532281</v>
-      </c>
-      <c r="P13">
-        <v>0.2385325564622017</v>
-      </c>
-      <c r="Q13">
-        <v>0.7738189482075001</v>
-      </c>
-      <c r="R13">
-        <v>4.642913689245001</v>
-      </c>
-      <c r="S13">
-        <v>0.003014876494210283</v>
-      </c>
-      <c r="T13">
-        <v>0.002112893449101489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.153465</v>
-      </c>
-      <c r="I14">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J14">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>5.926370333333334</v>
-      </c>
-      <c r="N14">
-        <v>17.779111</v>
-      </c>
-      <c r="O14">
-        <v>0.1339356918935731</v>
-      </c>
-      <c r="P14">
-        <v>0.1401768955306099</v>
-      </c>
-      <c r="Q14">
-        <v>0.4547452116025001</v>
-      </c>
-      <c r="R14">
-        <v>2.728471269615</v>
-      </c>
-      <c r="S14">
-        <v>0.001771733106937857</v>
-      </c>
-      <c r="T14">
-        <v>0.001241670523616522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.153465</v>
-      </c>
-      <c r="I15">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J15">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>5.910247</v>
-      </c>
-      <c r="N15">
-        <v>11.820494</v>
-      </c>
-      <c r="O15">
-        <v>0.1335713053155888</v>
-      </c>
-      <c r="P15">
-        <v>0.09319701938742614</v>
-      </c>
-      <c r="Q15">
-        <v>0.4535080279275001</v>
-      </c>
-      <c r="R15">
-        <v>1.81403211171</v>
-      </c>
-      <c r="S15">
-        <v>0.001766912914838118</v>
-      </c>
-      <c r="T15">
-        <v>0.0008255282828475482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.153465</v>
-      </c>
-      <c r="I16">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J16">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5.546787999999999</v>
-      </c>
-      <c r="N16">
-        <v>16.640364</v>
-      </c>
-      <c r="O16">
-        <v>0.1253571489429874</v>
-      </c>
-      <c r="P16">
-        <v>0.1311986052631834</v>
-      </c>
-      <c r="Q16">
-        <v>0.42561891021</v>
-      </c>
-      <c r="R16">
-        <v>2.55371346126</v>
-      </c>
-      <c r="S16">
-        <v>0.001658254105635364</v>
-      </c>
-      <c r="T16">
-        <v>0.001162141879931427</v>
+        <v>0.2190134005000318</v>
       </c>
     </row>
   </sheetData>
